--- a/biology/Médecine/Trouble_musculo-squelettique_(maladie_professionnelle)/Trouble_musculo-squelettique_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Trouble_musculo-squelettique_(maladie_professionnelle)/Trouble_musculo-squelettique_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une affection entrant dans le cadre des troubles musculosquelettiques soit reconnue comme maladie professionnelle en France. Il s'agit d'une description davantage juridique que médicale. Pour la description clinique de la maladie se reporter à l'article suivant :
 </t>
@@ -511,18 +523,198 @@
           <t>Législation en  France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trouble_musculo-squelettique_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_musculo-squelettique_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tableau en vigueur</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trouble_musculo-squelettique_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_musculo-squelettique_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Version antérieure du tableau (caduque)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Régime général
-Tableau en vigueur
-Version antérieure du tableau (caduque)
-Régime agricole
-Données professionnelles
-Sont concernées toutes les professions dont l'activité comporte des gestes répétitifs. 
-Données médicales
-Liste des pathologies concernées
-Pour le poignet, la main et les doigts:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trouble_musculo-squelettique_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_musculo-squelettique_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Trouble_musculo-squelettique_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_musculo-squelettique_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont concernées toutes les professions dont l'activité comporte des gestes répétitifs. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Trouble_musculo-squelettique_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trouble_musculo-squelettique_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Liste des pathologies concernées</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pour le poignet, la main et les doigts:
 Tendinite
 Ténosynovite
 Syndrome du canal carpien
